--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,21 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -79,112 +67,121 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>19</t>
@@ -545,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -664,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -714,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7333333333333333</v>
+        <v>0.5787671232876712</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7207792207792207</v>
+        <v>0.2228682170542636</v>
       </c>
       <c r="C7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4583333333333333</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3605150214592275</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,263 +961,167 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3571428571428572</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>233</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8125</v>
+      </c>
+      <c r="L10">
+        <v>104</v>
+      </c>
+      <c r="M10">
+        <v>104</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>19</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="L12">
+        <v>36</v>
+      </c>
+      <c r="M12">
+        <v>36</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
+      <c r="K14">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L14">
         <v>45</v>
       </c>
-      <c r="M10">
+      <c r="M14">
         <v>45</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>26</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>59</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L12">
-        <v>22</v>
-      </c>
-      <c r="M12">
-        <v>22</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2375</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>61</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L13">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>45</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7435897435897436</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6818181818181818</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.725</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1310,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6551724137931034</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1341,16 +1242,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1362,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6164383561643836</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1388,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5882352941176471</v>
+        <v>0.69375</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1414,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L23">
         <v>41</v>
       </c>
-      <c r="K23">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
       <c r="M23">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1440,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5789473684210527</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1466,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1492,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5404699738903395</v>
       </c>
       <c r="L26">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="M26">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1518,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>64</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5258215962441315</v>
+        <v>0.54</v>
       </c>
       <c r="L27">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1544,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5193798449612403</v>
+        <v>0.525</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1570,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4891304347826087</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1596,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1622,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4642857142857143</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1648,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4571428571428571</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1674,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4166666666666667</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1700,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1726,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3243243243243243</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1752,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.2894736842105263</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1778,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.05121951219512195</v>
+        <v>0.375</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1804,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>389</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.02816901408450704</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1830,33 +1731,111 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>414</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.0106951871657754</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N39">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1110</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.02996670366259711</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.01289490651192779</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>45</v>
+      </c>
+      <c r="N41">
+        <v>0.89</v>
+      </c>
+      <c r="O41">
+        <v>0.11</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.01261682242990654</v>
+      </c>
+      <c r="L42">
+        <v>27</v>
+      </c>
+      <c r="M42">
+        <v>30</v>
+      </c>
+      <c r="N42">
+        <v>0.9</v>
+      </c>
+      <c r="O42">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2113</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -67,85 +67,88 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
@@ -154,37 +157,40 @@
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -761,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5787671232876712</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C6">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8928571428571429</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2228682170542636</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C7">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>401</v>
+        <v>148</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2116402116402116</v>
+        <v>0.2073643410852713</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8636363636363636</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1275167785234899</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.07539682539682539</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1017,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1037,13 +1043,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7826086956521739</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1089,13 +1095,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1107,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1115,13 +1121,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7407407407407407</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1133,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1141,13 +1147,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7323943661971831</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L16">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1167,13 +1173,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7264150943396226</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1185,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1193,13 +1199,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.725</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L18">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1219,13 +1225,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1237,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1245,13 +1251,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1263,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1271,13 +1277,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1289,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1297,13 +1303,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.69375</v>
+        <v>0.65625</v>
       </c>
       <c r="L22">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M22">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1323,13 +1329,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6507936507936508</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1341,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1349,13 +1355,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6041666666666666</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1375,13 +1381,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1393,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1401,13 +1407,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5404699738903395</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L26">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1419,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1427,13 +1433,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.54</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1445,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1453,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.525</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1471,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1479,13 +1485,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5106382978723404</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1505,13 +1511,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.4677966101694915</v>
       </c>
       <c r="L30">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="M30">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1523,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1531,13 +1537,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4943820224719101</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1549,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1557,13 +1563,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4309623430962343</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L32">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>136</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1583,13 +1589,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4307692307692308</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1601,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1609,13 +1615,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4246575342465753</v>
+        <v>0.40625</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1627,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1635,13 +1641,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.423728813559322</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1653,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>170</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1661,13 +1667,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4102564102564102</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1679,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1687,13 +1693,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.375</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1705,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1713,13 +1719,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.05145413870246085</v>
+        <v>0.3</v>
       </c>
       <c r="L38">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1731,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>848</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1739,13 +1745,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.04567307692307692</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1757,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1765,13 +1771,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.02996670366259711</v>
+        <v>0.03914988814317674</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1783,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>874</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1791,25 +1797,25 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.01289490651192779</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N41">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3062</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1817,25 +1823,77 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.01261682242990654</v>
+        <v>0.01778193729527375</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M42">
+        <v>44</v>
+      </c>
+      <c r="N42">
+        <v>0.86</v>
+      </c>
+      <c r="O42">
+        <v>0.14</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.00966183574879227</v>
+      </c>
+      <c r="L43">
         <v>30</v>
       </c>
-      <c r="N42">
-        <v>0.9</v>
-      </c>
-      <c r="O42">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>2113</v>
+      <c r="M43">
+        <v>32</v>
+      </c>
+      <c r="N43">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O43">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <v>0.00594679186228482</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="N44">
+        <v>0.76</v>
+      </c>
+      <c r="O44">
+        <v>0.24</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3176</v>
       </c>
     </row>
   </sheetData>
